--- a/前端json列表.xlsx
+++ b/前端json列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,6 +29,85 @@
   </si>
   <si>
     <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向后端提供的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model-type:"#" (model模块类型，即活动管理模块、我的活动模块、我的收藏模块，分别对应三张业务表） 三种值: 1活动管理:my-hold 2:my-participate 3 my-collection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status:"#" (活动状态，值有 活动管理模块： 1 unpublished 2 published 3 processing 4finished 5 to-be-audited(待审核） 我的活动模块： 1 not-started 2 processing(进行中） 3finished(已结束）  我的收藏模块：  1 not-started 2 processing(进行中） 3finished(已结束）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{activities:[{logoSrc:"#",activityName:"#",location:"#",time:{startTime:"#",endTime:"#"},id:"#"},{...}</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="Adobe Myungjo Std M"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{...}&gt;]}</t>
+    </r>
+  </si>
+  <si>
+    <t>前端根据参数像后端请求数据，后端返回一个json文件，json是一个activity对象的数组。格式见字典格式（一定要看一下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logoSrc(logo链接）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityName（名称）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>location(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地点）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id (活动id)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -36,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +129,29 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="Adobe Myungjo Std M"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,8 +174,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -378,18 +483,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5546875" customWidth="1"/>
     <col min="2" max="2" width="61.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -400,11 +505,60 @@
       <c r="B1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/前端json列表.xlsx
+++ b/前端json列表.xlsx
@@ -44,8 +44,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>前端根据参数像后端请求数据，后端返回一个json文件，json是一个activity对象的数组。格式见字典格式（一定要看一下）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logoSrc(logo链接）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityName（名称）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>{activities:[{logoSrc:"#",activityName:"#",location:"#",time:{startTime:"#",endTime:"#"},id:"#"},{...}</t>
+      <t>location(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地点）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id (活动id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{activities:[{logoSrc:"#",activityName:"#",location:"#",startTime:"#",endTime:"#",id:"#"},{...}</t>
     </r>
     <r>
       <rPr>
@@ -68,46 +109,6 @@
       </rPr>
       <t>{...}&gt;]}</t>
     </r>
-  </si>
-  <si>
-    <t>前端根据参数像后端请求数据，后端返回一个json文件，json是一个activity对象的数组。格式见字典格式（一定要看一下）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logoSrc(logo链接）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activityName（名称）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>location(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地点）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id (活动id)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +487,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -517,7 +518,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -530,35 +531,35 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/前端json列表.xlsx
+++ b/前端json列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,14 +33,6 @@
   </si>
   <si>
     <t>向后端提供的参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model-type:"#" (model模块类型，即活动管理模块、我的活动模块、我的收藏模块，分别对应三张业务表） 三种值: 1活动管理:my-hold 2:my-participate 3 my-collection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status:"#" (活动状态，值有 活动管理模块： 1 unpublished 2 published 3 processing 4finished 5 to-be-audited(待审核） 我的活动模块： 1 not-started 2 processing(进行中） 3finished(已结束）  我的收藏模块：  1 not-started 2 processing(进行中） 3finished(已结束）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,6 +101,10 @@
       </rPr>
       <t>{...}&gt;]}</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮种类 ，分别是活动管理模块的 1 management-unpublished (未开始） 2 management-published(已发布） 3 management-processing(进行中） 4 management-finished(已结束） 5 to-be-audited(待审核） 以及我的活动的 6 my-not-start(未开始）7 my-processing(进行中） 8 my-finished(已结束） 我的收藏模块的9 fav-not-start 10 fav-processing 11 fav-finished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +483,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -518,48 +514,43 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/前端json列表.xlsx
+++ b/前端json列表.xlsx
@@ -104,7 +104,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按钮种类 ，分别是活动管理模块的 1 management-unpublished (未开始） 2 management-published(已发布） 3 management-processing(进行中） 4 management-finished(已结束） 5 to-be-audited(待审核） 以及我的活动的 6 my-not-start(未开始）7 my-processing(进行中） 8 my-finished(已结束） 我的收藏模块的9 fav-not-start 10 fav-processing 11 fav-finished</t>
+    <t>btn-type:"#" 按钮种类 ，分别是活动管理模块的 1 management-unpublished (未开始） 2 management-published(已发布） 3 management-processing(进行中） 4 management-finished(已结束） 5 to-be-audited(待审核） 以及我的活动的 6 my-not-start(未开始）7 my-processing(进行中） 8 my-finished(已结束） 我的收藏模块的9 fav-not-start 10 fav-processing 11 fav-finished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/前端json列表.xlsx
+++ b/前端json列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,14 @@
   </si>
   <si>
     <t>btn-type:"#" 按钮种类 ，分别是活动管理模块的 1 management-unpublished (未开始） 2 management-published(已发布） 3 management-processing(进行中） 4 management-finished(已结束） 5 to-be-audited(待审核） 以及我的活动的 6 my-not-start(未开始）7 my-processing(进行中） 8 my-finished(已结束） 我的收藏模块的9 fav-not-start 10 fav-processing 11 fav-finished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page-id:int  (int 第几页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per-page:int (每页有多少个）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +491,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -520,6 +528,16 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>6</v>

--- a/前端json列表.xlsx
+++ b/前端json列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,8 +77,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>btn-type:"#" 按钮种类 ，分别是活动管理模块的 1 management-unpublished (未开始） 2 management-published(已发布） 3 management-processing(进行中） 4 management-finished(已结束） 5 to-be-audited(待审核） 以及我的活动的 6 my-not-start(未开始）7 my-processing(进行中） 8 my-finished(已结束） 我的收藏模块的9 fav-not-start 10 fav-processing 11 fav-finished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page-id:int  (int 第几页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per-page:int (每页有多少个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNum(总页数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>{activities:[{logoSrc:"#",activityName:"#",location:"#",startTime:"#",endTime:"#",id:"#"},{...}</t>
+      <t>{pageNum:int,activities:[{logoSrc:"#",activityName:"#",location:"#",startTime:"#",endTime:"#",id:"#"},{...}</t>
     </r>
     <r>
       <rPr>
@@ -101,18 +117,6 @@
       </rPr>
       <t>{...}&gt;]}</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>btn-type:"#" 按钮种类 ，分别是活动管理模块的 1 management-unpublished (未开始） 2 management-published(已发布） 3 management-processing(进行中） 4 management-finished(已结束） 5 to-be-audited(待审核） 以及我的活动的 6 my-not-start(未开始）7 my-processing(进行中） 8 my-finished(已结束） 我的收藏模块的9 fav-not-start 10 fav-processing 11 fav-finished</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page-id:int  (int 第几页）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>per-page:int (每页有多少个）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -525,17 +529,17 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -543,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,6 +573,11 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/前端json列表.xlsx
+++ b/前端json列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,76 @@
       </rPr>
       <t>{...}&gt;]}</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示会议信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid:"#"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> status: 0</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="Adobe 宋体 Std L"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">未开始 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="Adobe 宋体 Std L"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">进行中 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="Adobe 宋体 Std L"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已结束</t>
+    </r>
+  </si>
+  <si>
+    <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status":int}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,13 +232,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="Adobe 宋体 Std L"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,9 +267,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -580,6 +667,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/前端json列表.xlsx
+++ b/前端json列表.xlsx
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>btn-type:"#" 按钮种类 ，分别是活动管理模块的 1 management-unpublished (未开始） 2 management-published(已发布） 3 management-processing(进行中） 4 management-finished(已结束） 5 to-be-audited(待审核） 以及我的活动的 6 my-not-start(未开始）7 my-processing(进行中） 8 my-finished(已结束） 我的收藏模块的9 fav-not-start 10 fav-processing 11 fav-finished</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>page-id:int  (int 第几页）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,6 +86,26 @@
   </si>
   <si>
     <t>pageNum(总页数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示会议信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid:"#"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> status: "unpublished" "published-notstart" "not-start" "processing" "finished" "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status":int}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn-type:"#" 按钮种类 ，分别是活动管理模块的 1 management-unpublished (未开始） 2 management-published(已发布） 3 management-processing(进行中） 4 management-finished(已结束） 5 management-to_be_audited(待审核） 以及我的活动的 6 my-not_start(未开始）7 my-processing(进行中） 8 my-finished(已结束） 我的收藏模块的9 fav-not_start 10 fav-processing 11 fav-finished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -115,78 +131,8 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>{...}&gt;]}</t>
+      <t>{...}]}</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示会议信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uuid:"#"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> status: 0</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <rFont val="Adobe 宋体 Std L"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">未开始 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <rFont val="Adobe 宋体 Std L"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">进行中 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <rFont val="Adobe 宋体 Std L"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已结束</t>
-    </r>
-  </si>
-  <si>
-    <t>{logo:"#",name:"#",start_time:"#",end_time:"#",location:"#",organizer:"#",introduction:"#",files:[{fileName:"#",fileSrc:"#"},..],type:"#","status":int}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,14 +176,6 @@
       <color rgb="FF808080"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF808080"/>
-      <name val="Adobe 宋体 Std L"/>
-      <family val="1"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -582,7 +520,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -616,17 +554,17 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -664,23 +602,23 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
